--- a/data/trans_camb/P28A_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28A_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,91</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,33</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 5,74</t>
+          <t>-8,44; 3,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -6,04</t>
+          <t>-12,89; -3,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -2,39</t>
+          <t>-12,25; -1,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 2,19</t>
+          <t>-7,43; 0,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -6,28</t>
+          <t>-8,66; -1,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,9; -0,41</t>
+          <t>-7,12; 1,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 2,0</t>
+          <t>-6,42; 0,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -7,55</t>
+          <t>-9,5; -3,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -2,78</t>
+          <t>-7,53; -0,91</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-84,15%</t>
+          <t>-87,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-63,65%</t>
+          <t>-71,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,62%</t>
+          <t>-57,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-87,96%</t>
+          <t>-83,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-50,07%</t>
+          <t>-50,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-21,03%</t>
+          <t>-37,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-85,93%</t>
+          <t>-86,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-57,96%</t>
+          <t>-62,53%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 60,57</t>
+          <t>-67,16; 75,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-96,26; -53,58</t>
+          <t>-100,0; -44,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,43; -16,94</t>
+          <t>-94,79; 16,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,46; 26,9</t>
+          <t>-87,5; 30,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-97,08; -58,57</t>
+          <t>-100,0; -29,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,95; -1,23</t>
+          <t>-86,98; 56,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 20,63</t>
+          <t>-67,5; 11,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-94,54; -71,1</t>
+          <t>-96,31; -60,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,91; -26,18</t>
+          <t>-83,39; -8,13</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,95</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,52</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>-4,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 5,13</t>
+          <t>-7,63; 4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; -3,42</t>
+          <t>-12,16; -0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,6; -5,35</t>
+          <t>-11,36; -0,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 7,04</t>
+          <t>-3,84; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,99; -2,02</t>
+          <t>-7,56; -0,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -0,15</t>
+          <t>-7,32; -0,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 3,42</t>
+          <t>-3,62; 3,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -4,71</t>
+          <t>-7,77; -1,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -4,86</t>
+          <t>-7,29; -1,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-23,41%</t>
+          <t>-12,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-77,37%</t>
+          <t>-82,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-81,44%</t>
+          <t>-70,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-87,04%</t>
+          <t>-83,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-70,97%</t>
+          <t>-80,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-79,52%</t>
+          <t>-82,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-78,61%</t>
+          <t>-74,02%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,56; 56,45</t>
+          <t>-73,68; 130,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-96,18; -15,76</t>
+          <t>-100,0; 36,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-94,75; -40,05</t>
+          <t>-93,64; 7,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,85; 217,43</t>
+          <t>-60,73; 278,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 17,99</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,14; 41,55</t>
+          <t>-50,06; 113,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-94,47; -39,78</t>
+          <t>-100,0; -1,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,9; -49,0</t>
+          <t>-93,67; -18,97</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,56</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,03</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,92</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,99</t>
+          <t>-8,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 2,22</t>
+          <t>-20,64; 5,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -2,86</t>
+          <t>-24,89; -2,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,1; -4,94</t>
+          <t>-24,89; -2,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 30,06</t>
+          <t>-7,28; 23,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 4,38</t>
+          <t>-15,62; 5,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -3,44</t>
+          <t>-19,91; -2,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 10,44</t>
+          <t>-9,43; 10,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -2,89</t>
+          <t>-15,48; -0,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,74; -6,29</t>
+          <t>-19,46; -3,7</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-65,7%</t>
+          <t>-65,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-87,4%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71,84%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-71,39%</t>
+          <t>-57,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,55%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-81,32%</t>
+          <t>-80,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 648,49</t>
+          <t>-69,39; inf</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 186,69</t>
+          <t>-71,35; 272,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,19</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-4,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,83</t>
+          <t>-6,26; 2,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,09; -7,06</t>
+          <t>-10,88; -4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,15</t>
+          <t>-10,02; -2,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 3,63</t>
+          <t>-3,57; 2,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -5,89</t>
+          <t>-7,03; -2,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,49</t>
+          <t>-6,37; -1,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,24</t>
+          <t>-3,9; 1,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -7,46</t>
+          <t>-7,79; -3,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -5,68</t>
+          <t>-7,09; -2,67</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>-24,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-81,46%</t>
+          <t>-87,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-75,53%</t>
+          <t>-75,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,88%</t>
+          <t>-12,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-85,91%</t>
+          <t>-79,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-62,35%</t>
+          <t>-66,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-83,07%</t>
+          <t>-84,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-70,63%</t>
+          <t>-71,47%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 18,92</t>
+          <t>-58,26; 39,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,9; -58,7</t>
+          <t>-97,32; -58,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-88,02; -51,89</t>
+          <t>-91,71; -31,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 42,62</t>
+          <t>-52,85; 68,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-94,81; -67,6</t>
+          <t>-94,56; -37,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,02; -26,03</t>
+          <t>-88,79; -17,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 11,58</t>
+          <t>-47,03; 22,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-91,24; -67,79</t>
+          <t>-94,67; -68,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-81,88; -53,65</t>
+          <t>-86,86; -47,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
